--- a/Study3/Clustering/output_data/categorical_model/categorical_results.xlsx
+++ b/Study3/Clustering/output_data/categorical_model/categorical_results.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CX\SRK\Study3\Clustering\output_data\categorical_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CX\SRK\Code\Study3\Clustering\output_data\categorical_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39AEF8C-1BD3-4732-986E-CE407018C067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068441B1-2139-4C81-AE1C-400C5A76F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="25440" windowHeight="15270" tabRatio="416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw33d_dissim" sheetId="5" r:id="rId1"/>
+    <sheet name="averaged_world_loocv" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="24">
   <si>
     <t>Private</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C44170-C6E1-4627-B645-4CBEA30717EA}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -725,6 +726,271 @@
         <v>1</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E21782-539F-4A23-B9A8-85D3FE9A74F7}">
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -736,18 +1002,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -935,18 +1201,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FB9ABDA-F8F6-47F1-8C0D-64EA48A34EE1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C53AAC2-1932-4A07-AE0C-B896F9E8CD47}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C53AAC2-1932-4A07-AE0C-B896F9E8CD47}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FB9ABDA-F8F6-47F1-8C0D-64EA48A34EE1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
